--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="291">
   <si>
     <t>Entity</t>
   </si>
@@ -75,30 +75,51 @@
     <t>ProcessCreate</t>
   </si>
   <si>
+    <t>Driver</t>
+  </si>
+  <si>
     <t>LnkProcessCreate</t>
   </si>
   <si>
+    <t>File</t>
+  </si>
+  <si>
     <t>RpcProcessCreate</t>
   </si>
   <si>
     <t>RemoteRpcProcessCreate</t>
   </si>
   <si>
+    <t>Network Traffic</t>
+  </si>
+  <si>
     <t>RegisterProcessCreate</t>
   </si>
   <si>
+    <t>Registry</t>
+  </si>
+  <si>
     <t>SchJobProcessCreate</t>
   </si>
   <si>
+    <t>Scheduled Job</t>
+  </si>
+  <si>
     <t>ServiceProcessCreate</t>
   </si>
   <si>
+    <t>Service</t>
+  </si>
+  <si>
     <t>FileProcessCreate</t>
   </si>
   <si>
     <t>WmiProcessCreate</t>
   </si>
   <si>
+    <t>WMI</t>
+  </si>
+  <si>
     <t>Process Access</t>
   </si>
   <si>
@@ -108,6 +129,9 @@
     <t>RemoteMemoryRead</t>
   </si>
   <si>
+    <t>ETW-Ti</t>
+  </si>
+  <si>
     <t>Process Modification</t>
   </si>
   <si>
@@ -135,6 +159,9 @@
     <t>ProcessInject</t>
   </si>
   <si>
+    <t>ETW-Ti&amp;Driver</t>
+  </si>
+  <si>
     <t>Process Termination</t>
   </si>
   <si>
@@ -156,9 +183,6 @@
     <t>CommandExecute</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>File Creation</t>
   </si>
   <si>
@@ -213,7 +237,7 @@
     <t>ScriptExecute</t>
   </si>
   <si>
-    <t>Driver</t>
+    <t>AMSI</t>
   </si>
   <si>
     <t>Driver Load</t>
@@ -222,7 +246,235 @@
     <t>DriverLoad</t>
   </si>
   <si>
-    <t>Registry</t>
+    <t>Windows Registry Key Access</t>
+  </si>
+  <si>
+    <t>RegistryOpenKey</t>
+  </si>
+  <si>
+    <t>RpcRegistryOpenKey</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistryOpenKey</t>
+  </si>
+  <si>
+    <t>RegistrySaveKey</t>
+  </si>
+  <si>
+    <t>RpcRegistrySaveKey</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistrySaveKey</t>
+  </si>
+  <si>
+    <t>Windows Registry Key Creation</t>
+  </si>
+  <si>
+    <t>RegistryKeyCreate</t>
+  </si>
+  <si>
+    <t>RpcRegistryKeyCreate</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistryKeyCreate</t>
+  </si>
+  <si>
+    <t>Windows Registry Key Modification</t>
+  </si>
+  <si>
+    <t>RegistrySetValue</t>
+  </si>
+  <si>
+    <t>RpcRegistrySetValue</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistrySetValue</t>
+  </si>
+  <si>
+    <t>RegistryRenameKey</t>
+  </si>
+  <si>
+    <t>RpcRegistryRenameKey</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistryRenameKey</t>
+  </si>
+  <si>
+    <t>RegistrySetkeysecurity</t>
+  </si>
+  <si>
+    <t>RpcRegistrySetkeysecurity</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistrySetkeysecurity</t>
+  </si>
+  <si>
+    <t>Windows Registry Key Deletion</t>
+  </si>
+  <si>
+    <t>RegistryDeleteKey</t>
+  </si>
+  <si>
+    <t>RpcRegistryDeleteKey</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistryDeleteKey</t>
+  </si>
+  <si>
+    <t>RegistryDeleteValue</t>
+  </si>
+  <si>
+    <t>RpcRegistryDeleteValue</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistryDeleteValue</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Scheduled Job Creation</t>
+  </si>
+  <si>
+    <t>ScheduleTaskCreate</t>
+  </si>
+  <si>
+    <t>RpcScheduleTaskCreate</t>
+  </si>
+  <si>
+    <t>ReomoteRpcScheduleTaskCreate</t>
+  </si>
+  <si>
+    <t>Scheduled Job Modification</t>
+  </si>
+  <si>
+    <t>ScheduleTaskModify</t>
+  </si>
+  <si>
+    <t>RpcScheduleTaskModify</t>
+  </si>
+  <si>
+    <t>RpcRemoteScheduleTaskModify</t>
+  </si>
+  <si>
+    <t>Service Creation</t>
+  </si>
+  <si>
+    <t>ServiceCreate</t>
+  </si>
+  <si>
+    <t>RpcServiceCreate</t>
+  </si>
+  <si>
+    <t>RpcRemoteServiceCreate</t>
+  </si>
+  <si>
+    <t>Service Modification</t>
+  </si>
+  <si>
+    <t>ServiceModify</t>
+  </si>
+  <si>
+    <t>RpcServiceModify</t>
+  </si>
+  <si>
+    <t>RpcRemoteServiceModify</t>
+  </si>
+  <si>
+    <t>Network Connection Creation</t>
+  </si>
+  <si>
+    <t>NetworkConnect</t>
+  </si>
+  <si>
+    <t>NetworkListen</t>
+  </si>
+  <si>
+    <t>IPScan</t>
+  </si>
+  <si>
+    <t>PortScan</t>
+  </si>
+  <si>
+    <t>Network Traffic Content</t>
+  </si>
+  <si>
+    <t>DnsRequest</t>
+  </si>
+  <si>
+    <t>Network Traffic Flow</t>
+  </si>
+  <si>
+    <t>User Account</t>
+  </si>
+  <si>
+    <t>User Account Authentication</t>
+  </si>
+  <si>
+    <t>AccountLogin</t>
+  </si>
+  <si>
+    <t>ETW</t>
+  </si>
+  <si>
+    <t>AccountBruteForce</t>
+  </si>
+  <si>
+    <t>User Account Creation</t>
+  </si>
+  <si>
+    <t>AccountCreate</t>
+  </si>
+  <si>
+    <t>User Account Deletion</t>
+  </si>
+  <si>
+    <t>AccountDelete</t>
+  </si>
+  <si>
+    <t>User Account Modification</t>
+  </si>
+  <si>
+    <t>PasswordUpdate</t>
+  </si>
+  <si>
+    <t>AccountModify</t>
+  </si>
+  <si>
+    <t>Sensor Health</t>
+  </si>
+  <si>
+    <t>Host Status</t>
+  </si>
+  <si>
+    <t>AgentServicesStatus</t>
+  </si>
+  <si>
+    <t>Named Pipe</t>
+  </si>
+  <si>
+    <t>Named Pipe Creation</t>
+  </si>
+  <si>
+    <t>NamedPipeCreate</t>
+  </si>
+  <si>
+    <t>Named Pipe Connection</t>
+  </si>
+  <si>
+    <t>NamedPipeConnect</t>
+  </si>
+  <si>
+    <t>WMI Creation</t>
+  </si>
+  <si>
+    <t>WmiEventFilter</t>
+  </si>
+  <si>
+    <t>WmiEventConsumer</t>
+  </si>
+  <si>
+    <t>WmiEventConsumerToFilter</t>
   </si>
   <si>
     <t>Entity/Edge</t>
@@ -569,9 +821,6 @@
   </si>
   <si>
     <t>0x011004</t>
-  </si>
-  <si>
-    <t>Service</t>
   </si>
   <si>
     <t>ExeProcessCreate</t>
@@ -1639,19 +1888,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="7" width="12.875" customWidth="1"/>
+    <col min="1" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
+    <col min="5" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1677,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1690,247 +1939,1411 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="4:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7">
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7">
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7">
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
       <c r="C13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
       <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
       <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
       <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:7">
       <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="4:4">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
       <c r="D24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
       <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7">
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="D79" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>120</v>
+      </c>
+      <c r="G79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>120</v>
+      </c>
+      <c r="G80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7">
+      <c r="D83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7">
+      <c r="D88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7">
+      <c r="D89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="37">
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A36:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A89"/>
     <mergeCell ref="B2:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B36:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B89"/>
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C20"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C53"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C87:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2087,8 +3500,8 @@
   <sheetPr/>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2108,497 +3521,497 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="5:7">
       <c r="E3" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="5:7">
       <c r="E6" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="54" spans="5:7">
       <c r="E13" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" ht="81" spans="5:7">
       <c r="E29" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" ht="27" spans="4:7">
       <c r="D35" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" ht="27" spans="5:7">
       <c r="E39" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" ht="27" spans="5:7">
       <c r="E40" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" ht="27" spans="5:7">
       <c r="E41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" t="s">
         <v>155</v>
       </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" ht="67.5" spans="5:7">
       <c r="E42" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2609,10 +4022,10 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -2620,20 +4033,20 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="4:5">
       <c r="D46" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -2641,34 +4054,34 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -2676,13 +4089,13 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -2690,20 +4103,20 @@
     </row>
     <row r="52" spans="4:5">
       <c r="D52" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="4:5">
       <c r="D54" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -2711,29 +4124,29 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E55" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -2741,34 +4154,34 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="4:5">
       <c r="D59" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="D61" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -2776,34 +4189,34 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="4:5">
       <c r="D63" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="4:5">
       <c r="D65" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -2811,34 +4224,34 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="D69" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -2846,34 +4259,34 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="4:5">
       <c r="D71" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="4:5">
       <c r="D73" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -2881,34 +4294,34 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="4:5">
       <c r="D75" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="4:5">
       <c r="D77" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -2916,16 +4329,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -2933,25 +4346,25 @@
     </row>
     <row r="79" spans="4:5">
       <c r="D79" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="4:5">
       <c r="D82" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -2959,13 +4372,13 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -2973,30 +4386,30 @@
     </row>
     <row r="84" spans="4:5">
       <c r="D84" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="4:5">
       <c r="D88" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -3004,16 +4417,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -3021,40 +4434,40 @@
     </row>
     <row r="90" spans="4:5">
       <c r="D90" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="4:5">
       <c r="D96" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -3062,13 +4475,13 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -3076,20 +4489,20 @@
     </row>
     <row r="98" spans="4:5">
       <c r="D98" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E98" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="4:5">
       <c r="D100" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
@@ -3097,13 +4510,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
@@ -3111,30 +4524,30 @@
     </row>
     <row r="102" spans="4:5">
       <c r="D102" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="4:5">
       <c r="D106" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -3142,13 +4555,13 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -3156,35 +4569,35 @@
     </row>
     <row r="108" spans="4:5">
       <c r="D108" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E108" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="4:5">
       <c r="D113" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -3192,13 +4605,13 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -3206,40 +4619,40 @@
     </row>
     <row r="115" spans="4:5">
       <c r="D115" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E115" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="4:5">
       <c r="D121" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -3247,13 +4660,13 @@
     </row>
     <row r="122" spans="2:5">
       <c r="B122" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -3261,20 +4674,20 @@
     </row>
     <row r="123" spans="4:5">
       <c r="D123" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E123" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="4:5">
       <c r="D125" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -3282,13 +4695,13 @@
     </row>
     <row r="126" spans="2:5">
       <c r="B126" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -3296,20 +4709,20 @@
     </row>
     <row r="127" spans="4:5">
       <c r="D127" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E127" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="4:5">
       <c r="D129" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -3317,13 +4730,13 @@
     </row>
     <row r="130" spans="2:5">
       <c r="B130" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -3331,20 +4744,20 @@
     </row>
     <row r="131" spans="4:5">
       <c r="D131" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E131" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="4:5">
       <c r="D133" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -3352,16 +4765,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -3369,15 +4782,15 @@
     </row>
     <row r="135" spans="4:5">
       <c r="D135" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E135" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="4:5">
       <c r="D137" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -3385,13 +4798,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="D138" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -3399,28 +4812,28 @@
     </row>
     <row r="139" spans="4:5">
       <c r="D139" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E139" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="4:5">
       <c r="D142" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E142" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10485"/>
+    <workbookView windowWidth="24030" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DetectionModel" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="323">
   <si>
     <t>Entity</t>
   </si>
@@ -477,6 +477,128 @@
     <t>WmiEventConsumerToFilter</t>
   </si>
   <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Field Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Common Field</t>
+  </si>
+  <si>
+    <t>EventId</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>事件唯一ID</t>
+  </si>
+  <si>
+    <t>TelemetryEventTypeID</t>
+  </si>
+  <si>
+    <t>遥测事件类型</t>
+  </si>
+  <si>
+    <t>DataComponentTypeId</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>事件大类，data component类型</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>PlatformUtcTime</t>
+  </si>
+  <si>
+    <t>校正后的平台时间戳</t>
+  </si>
+  <si>
+    <t>AgentUtcTime</t>
+  </si>
+  <si>
+    <t>agent的自然时间戳</t>
+  </si>
+  <si>
+    <t>AutoIncrementId</t>
+  </si>
+  <si>
+    <t>自增ID
+前32位为原始事件自增ID
+后32位为遥测事件自增ID</t>
+  </si>
+  <si>
+    <t>ControlGraphId</t>
+  </si>
+  <si>
+    <t>边所属的CG ID</t>
+  </si>
+  <si>
+    <t>agtCostTracing</t>
+  </si>
+  <si>
+    <t>agent耗时跟踪</t>
+  </si>
+  <si>
+    <t>plfCostTracing</t>
+  </si>
+  <si>
+    <t>耗时跟踪</t>
+  </si>
+  <si>
+    <t>EventClassification</t>
+  </si>
+  <si>
+    <t>遥测事件分类：
+1:原始遥测事件
+2:过滤摘要遥测事件
+3:统计摘要遥测事件
+4:行为序列遥测事件
+5:断链遥测事件
+6:异步富化遥测事件</t>
+  </si>
+  <si>
+    <t>AbstractStartTime</t>
+  </si>
+  <si>
+    <t>阈值</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>时间片开始时间</t>
+  </si>
+  <si>
+    <t>AbstractEndTime</t>
+  </si>
+  <si>
+    <t>时间片结束时间</t>
+  </si>
+  <si>
+    <t>AbstractInfo</t>
+  </si>
+  <si>
+    <t>摘要信息，json数组</t>
+  </si>
+  <si>
+    <t>Other Field</t>
+  </si>
+  <si>
+    <t>见各类事件sheet</t>
+  </si>
+  <si>
     <t>Entity/Edge</t>
   </si>
   <si>
@@ -486,18 +608,9 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>FieldDescription</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>Process Metadata</t>
   </si>
   <si>
@@ -510,9 +623,6 @@
     <t>NodeId</t>
   </si>
   <si>
-    <t>uint64</t>
-  </si>
-  <si>
     <t>进程节点ID</t>
   </si>
   <si>
@@ -537,9 +647,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>进程名</t>
   </si>
   <si>
@@ -568,9 +675,6 @@
   </si>
   <si>
     <t>IntegrityLevel</t>
-  </si>
-  <si>
-    <t>uint32</t>
   </si>
   <si>
     <t>完整性级别</t>
@@ -1567,12 +1671,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1890,8 +1997,8 @@
   <sheetPr/>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3482,14 +3589,221 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="2:4">
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" ht="94.5" spans="2:4">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3521,497 +3835,497 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="5:7">
       <c r="E3" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="5:7">
       <c r="E6" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" ht="54" spans="5:7">
       <c r="E13" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" ht="81" spans="5:7">
       <c r="E29" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" ht="27" spans="4:7">
       <c r="D35" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G37" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" ht="27" spans="5:7">
       <c r="E39" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" ht="27" spans="5:7">
       <c r="E40" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" ht="27" spans="5:7">
       <c r="E41" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" ht="67.5" spans="5:7">
       <c r="E42" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4022,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -4033,20 +4347,20 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="4:5">
       <c r="D46" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -4057,10 +4371,10 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -4068,20 +4382,20 @@
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -4089,13 +4403,13 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -4103,20 +4417,20 @@
     </row>
     <row r="52" spans="4:5">
       <c r="D52" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="4:5">
       <c r="D54" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -4127,26 +4441,26 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -4157,10 +4471,10 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
@@ -4168,20 +4482,20 @@
     </row>
     <row r="59" spans="4:5">
       <c r="D59" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="D61" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -4192,31 +4506,31 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="4:5">
       <c r="D63" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="4:5">
       <c r="D65" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -4227,10 +4541,10 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -4238,20 +4552,20 @@
     </row>
     <row r="67" spans="4:5">
       <c r="D67" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="D69" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -4259,13 +4573,13 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -4273,20 +4587,20 @@
     </row>
     <row r="71" spans="4:5">
       <c r="D71" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="4:5">
       <c r="D73" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -4297,10 +4611,10 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -4308,20 +4622,20 @@
     </row>
     <row r="75" spans="4:5">
       <c r="D75" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="4:5">
       <c r="D77" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -4335,10 +4649,10 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -4346,25 +4660,25 @@
     </row>
     <row r="79" spans="4:5">
       <c r="D79" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="4:5">
       <c r="D82" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -4375,10 +4689,10 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -4386,30 +4700,30 @@
     </row>
     <row r="84" spans="4:5">
       <c r="D84" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="4:5">
       <c r="D88" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -4423,10 +4737,10 @@
         <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -4434,40 +4748,40 @@
     </row>
     <row r="90" spans="4:5">
       <c r="D90" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E90" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="4:5">
       <c r="D96" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -4478,10 +4792,10 @@
         <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="D97" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -4489,20 +4803,20 @@
     </row>
     <row r="98" spans="4:5">
       <c r="D98" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="4:5">
       <c r="D100" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
@@ -4513,10 +4827,10 @@
         <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="D101" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
@@ -4524,30 +4838,30 @@
     </row>
     <row r="102" spans="4:5">
       <c r="D102" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E102" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="4:5">
       <c r="D106" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -4558,10 +4872,10 @@
         <v>33</v>
       </c>
       <c r="C107" t="s">
+        <v>308</v>
+      </c>
+      <c r="D107" t="s">
         <v>276</v>
-      </c>
-      <c r="D107" t="s">
-        <v>244</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -4569,35 +4883,35 @@
     </row>
     <row r="108" spans="4:5">
       <c r="D108" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="4:5">
       <c r="D113" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -4608,10 +4922,10 @@
         <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -4619,40 +4933,40 @@
     </row>
     <row r="115" spans="4:5">
       <c r="D115" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="4:5">
       <c r="D121" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -4663,10 +4977,10 @@
         <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -4674,20 +4988,20 @@
     </row>
     <row r="123" spans="4:5">
       <c r="D123" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="4:5">
       <c r="D125" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -4698,10 +5012,10 @@
         <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -4709,20 +5023,20 @@
     </row>
     <row r="127" spans="4:5">
       <c r="D127" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="4:5">
       <c r="D129" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -4733,10 +5047,10 @@
         <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="D130" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -4744,20 +5058,20 @@
     </row>
     <row r="131" spans="4:5">
       <c r="D131" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="4:5">
       <c r="D133" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -4771,10 +5085,10 @@
         <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="D134" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -4782,15 +5096,15 @@
     </row>
     <row r="135" spans="4:5">
       <c r="D135" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="4:5">
       <c r="D137" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -4801,10 +5115,10 @@
         <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -4812,28 +5126,28 @@
     </row>
     <row r="139" spans="4:5">
       <c r="D139" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E139" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="4:5">
       <c r="D142" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E142" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10485" activeTab="1"/>
+    <workbookView windowWidth="24030" windowHeight="10485" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="DetectionModel" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="392">
   <si>
     <t>Entity</t>
   </si>
@@ -1027,6 +1027,213 @@
   </si>
   <si>
     <t>ProcessGuid/File</t>
+  </si>
+  <si>
+    <t>Extend Process Metadata</t>
+  </si>
+  <si>
+    <t>同ProcessCreate</t>
+  </si>
+  <si>
+    <t>Extend File Metadata</t>
+  </si>
+  <si>
+    <t>0x02000f</t>
+  </si>
+  <si>
+    <t>边公共字段</t>
+  </si>
+  <si>
+    <t>基地址</t>
+  </si>
+  <si>
+    <t>调用栈</t>
+  </si>
+  <si>
+    <t>0x024001</t>
+  </si>
+  <si>
+    <t>0x020010</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>TA0001:Initial Access</t>
+  </si>
+  <si>
+    <t>TA0002:Execution</t>
+  </si>
+  <si>
+    <t>TA0003:Persistence</t>
+  </si>
+  <si>
+    <t>TA0004:Privilege Escalation</t>
+  </si>
+  <si>
+    <t>TA0005:Defense Evasion</t>
+  </si>
+  <si>
+    <t>TA0006:Credential Access</t>
+  </si>
+  <si>
+    <t>TA0007:Discovery</t>
+  </si>
+  <si>
+    <t>TA0008:Lateral Movement</t>
+  </si>
+  <si>
+    <t>TA0009:Collection</t>
+  </si>
+  <si>
+    <t>TA0011:Command and Control</t>
+  </si>
+  <si>
+    <t>TA0010:Exfiltration</t>
+  </si>
+  <si>
+    <t>TA0040:Impact</t>
+  </si>
+  <si>
+    <t>T1566:Phishing</t>
+  </si>
+  <si>
+    <t>T1059:Command and Scripting Interpreter</t>
+  </si>
+  <si>
+    <t>T1547:Boot or Logon AutoStart Execution</t>
+  </si>
+  <si>
+    <t>T1548:Abuse Elevation Control Mechanism</t>
+  </si>
+  <si>
+    <t>T1078:Valid Accounts</t>
+  </si>
+  <si>
+    <t>T1203:Exploitation for Client Execution</t>
+  </si>
+  <si>
+    <t>T1546:Event Triggered Execution</t>
+  </si>
+  <si>
+    <t>T1547:Boot or Logon Autostart Execution</t>
+  </si>
+  <si>
+    <t>T1190:Exploit Public-Facing Application</t>
+  </si>
+  <si>
+    <t>T1503:Scheduled Task/Job</t>
+  </si>
+  <si>
+    <t>T1574:Hijack Execution Flow</t>
+  </si>
+  <si>
+    <t>T1133:External Remote Services</t>
+  </si>
+  <si>
+    <t>T1204:User Execution</t>
+  </si>
+  <si>
+    <t>T1053:Scheduled Task/Job</t>
+  </si>
+  <si>
+    <t>T1091:Replication Through Removable Media</t>
+  </si>
+  <si>
+    <t>T1047:Windows Management Instrumentation</t>
+  </si>
+  <si>
+    <t>T1055:Process Injection</t>
+  </si>
+  <si>
+    <t>T1659:Content Injection</t>
+  </si>
+  <si>
+    <t>T1559:Inter-Process Communication</t>
+  </si>
+  <si>
+    <t>T1136:Create Account</t>
+  </si>
+  <si>
+    <t>T1189:Driver-by Compromise</t>
+  </si>
+  <si>
+    <t>T1106:Native API</t>
+  </si>
+  <si>
+    <t>T1543:Create or Modify System Process</t>
+  </si>
+  <si>
+    <t>T1200:Hardware Additions</t>
+  </si>
+  <si>
+    <t>T1569:System Services</t>
+  </si>
+  <si>
+    <t>T1505:Server Software Component</t>
+  </si>
+  <si>
+    <t>T1134:Access Token Manipulation</t>
+  </si>
+  <si>
+    <t>T1195:Supply Chain Compromise</t>
+  </si>
+  <si>
+    <t>T1129:Shared Modules</t>
+  </si>
+  <si>
+    <t>T1197:BITS Jobs</t>
+  </si>
+  <si>
+    <t>T1199:Trusted Relationship</t>
+  </si>
+  <si>
+    <t>T1072:Software Deployment Tools</t>
+  </si>
+  <si>
+    <t>T1037:Boot or Logon Initialization Scripts</t>
+  </si>
+  <si>
+    <t>T1068:Exploitation for Privilege Escalation</t>
+  </si>
+  <si>
+    <t>T1176:Browser Extensions</t>
+  </si>
+  <si>
+    <t>T1554:Compromise Host Software Binary</t>
+  </si>
+  <si>
+    <t>T1484:Domain or Tenant Policy Modification</t>
+  </si>
+  <si>
+    <t>T1098:Account Manipulation</t>
+  </si>
+  <si>
+    <t>T1556:Modify Authentication Process</t>
+  </si>
+  <si>
+    <t>T1611:Escape to Host</t>
+  </si>
+  <si>
+    <t>T1137:Office Application Startup</t>
+  </si>
+  <si>
+    <t>T1205:Traffic Signaling</t>
+  </si>
+  <si>
+    <t>T1542:Pre-OS Boot</t>
+  </si>
+  <si>
+    <t>T1653:Power Settings</t>
   </si>
 </sst>
 </file>
@@ -1039,9 +1246,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1200,7 +1414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,7 +1423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,7 +1626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1415,6 +1641,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1541,76 +1780,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1619,10 +1852,10 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1631,10 +1864,10 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1643,10 +1876,10 @@
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,10 +1888,10 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1667,19 +1900,88 @@
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2011,25 +2313,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3573,14 +3875,280 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="9" width="26" customWidth="1"/>
+    <col min="10" max="11" width="29.375" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" ht="24" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" ht="24" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" ht="24" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" ht="24" spans="1:4">
+      <c r="A14" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" ht="24" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="1:4">
+      <c r="A17" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="3:4">
+      <c r="C18" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="3:4">
+      <c r="C19" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" ht="24" spans="3:4">
+      <c r="C21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3591,8 +4159,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3604,17 +4172,18 @@
     <col min="5" max="5" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="23" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3694,7 +4263,7 @@
       <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="24" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3738,7 +4307,7 @@
       <c r="C12" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="24" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3814,8 +4383,8 @@
   <sheetPr/>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3831,28 +4400,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4002,7 +4571,7 @@
       <c r="F13" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="21" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4178,7 +4747,7 @@
       <c r="F29" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="21" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4247,7 +4816,7 @@
       <c r="F35" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="21" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4291,7 +4860,7 @@
       <c r="F39" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="21" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4302,7 +4871,7 @@
       <c r="F40" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="21" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4313,7 +4882,7 @@
       <c r="F41" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="21" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4324,7 +4893,7 @@
       <c r="F42" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="21" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5233,14 +5802,106 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -5266,14 +5927,117 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6">
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D4:D6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5282,14 +6046,100 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5298,14 +6148,99 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="516">
   <si>
     <t>Entity</t>
   </si>
@@ -1116,6 +1116,27 @@
     <t>T1548:Abuse Elevation Control Mechanism</t>
   </si>
   <si>
+    <t>T1555:Credentials from Password</t>
+  </si>
+  <si>
+    <t>T1082:System Information Discovery</t>
+  </si>
+  <si>
+    <t>T1021:Remote Services</t>
+  </si>
+  <si>
+    <t>T1557:Adversary-in-the-Middle</t>
+  </si>
+  <si>
+    <t>T1071:Application Layer Protocol</t>
+  </si>
+  <si>
+    <t>T1020:Automated Exfiltration</t>
+  </si>
+  <si>
+    <t>T1531:Account Access Removal</t>
+  </si>
+  <si>
     <t>T1078:Valid Accounts</t>
   </si>
   <si>
@@ -1128,6 +1149,30 @@
     <t>T1547:Boot or Logon Autostart Execution</t>
   </si>
   <si>
+    <t>T1140:Deobfuscate/Decode Files or Information</t>
+  </si>
+  <si>
+    <t>T1003:OS Credentail Dumping</t>
+  </si>
+  <si>
+    <t>T1087:Account Discovery</t>
+  </si>
+  <si>
+    <t>T1570:Lateral Tool Transfer</t>
+  </si>
+  <si>
+    <t>T1185:Browser Session Hijacking</t>
+  </si>
+  <si>
+    <t>T1090:Proxy</t>
+  </si>
+  <si>
+    <t>T1048:Exfiltration Over Alternative Protocol</t>
+  </si>
+  <si>
+    <t>T1485:Data Destruction</t>
+  </si>
+  <si>
     <t>T1190:Exploit Public-Facing Application</t>
   </si>
   <si>
@@ -1137,6 +1182,27 @@
     <t>T1574:Hijack Execution Flow</t>
   </si>
   <si>
+    <t>T1110:Brute Force</t>
+  </si>
+  <si>
+    <t>T1083:File and Directory Discovery</t>
+  </si>
+  <si>
+    <t>T1550:User Alternate Authentication Material</t>
+  </si>
+  <si>
+    <t>T1115:Clipboard Data</t>
+  </si>
+  <si>
+    <t>T1219:Remote Access Software</t>
+  </si>
+  <si>
+    <t>T1011:Exfiltration Over Other Network Medium</t>
+  </si>
+  <si>
+    <t>T1486:Data Encrypted for Impact</t>
+  </si>
+  <si>
     <t>T1133:External Remote Services</t>
   </si>
   <si>
@@ -1146,6 +1212,30 @@
     <t>T1053:Scheduled Task/Job</t>
   </si>
   <si>
+    <t>T1036:Masquerading</t>
+  </si>
+  <si>
+    <t>T1552:Unsecured Credentials</t>
+  </si>
+  <si>
+    <t>T1069:Permission Groups Discovery</t>
+  </si>
+  <si>
+    <t>T1210:Exploitation of Remote Services</t>
+  </si>
+  <si>
+    <t>T1056:Input Capture</t>
+  </si>
+  <si>
+    <t>T1205:Traffic Signaling</t>
+  </si>
+  <si>
+    <t>T1052:Exfiltration Over Physical Medium</t>
+  </si>
+  <si>
+    <t>T1565:Data Manipulation</t>
+  </si>
+  <si>
     <t>T1091:Replication Through Removable Media</t>
   </si>
   <si>
@@ -1155,6 +1245,27 @@
     <t>T1055:Process Injection</t>
   </si>
   <si>
+    <t>T1027:Obfuscated Files or Information</t>
+  </si>
+  <si>
+    <t>T1057:Process Discovery</t>
+  </si>
+  <si>
+    <t>T1534:Internal Spearphishing</t>
+  </si>
+  <si>
+    <t>T1113:Screen Capture</t>
+  </si>
+  <si>
+    <t>T1132:Data Encoding</t>
+  </si>
+  <si>
+    <t>T1567:Exfiltration Over Web Service</t>
+  </si>
+  <si>
+    <t>T1491:Defacement</t>
+  </si>
+  <si>
     <t>T1659:Content Injection</t>
   </si>
   <si>
@@ -1164,6 +1275,27 @@
     <t>T1136:Create Account</t>
   </si>
   <si>
+    <t>T1187:Forced Authentication</t>
+  </si>
+  <si>
+    <t>T1018:Remote System Discovery</t>
+  </si>
+  <si>
+    <t>T1563:Remote Service Session Hijacking</t>
+  </si>
+  <si>
+    <t>T1560:Archive Collected Data</t>
+  </si>
+  <si>
+    <t>T1001:Data Obfuscation</t>
+  </si>
+  <si>
+    <t>T1030:Data Transfer Size Limits</t>
+  </si>
+  <si>
+    <t>T1561:Disk Wipe</t>
+  </si>
+  <si>
     <t>T1189:Driver-by Compromise</t>
   </si>
   <si>
@@ -1173,6 +1305,30 @@
     <t>T1543:Create or Modify System Process</t>
   </si>
   <si>
+    <t>T1218:System Binary Proxy Execution</t>
+  </si>
+  <si>
+    <t>T1606:Forge Web Credentials</t>
+  </si>
+  <si>
+    <t>T1518:Software Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1091:Replication Through Removable Media </t>
+  </si>
+  <si>
+    <t>T1213:Data from Information Repositories</t>
+  </si>
+  <si>
+    <t>T1568:Dynamic Resolution</t>
+  </si>
+  <si>
+    <t>T1041:Exfiltration Over C2 Channel</t>
+  </si>
+  <si>
+    <t>T1499:Endpoint Denial of Service</t>
+  </si>
+  <si>
     <t>T1200:Hardware Additions</t>
   </si>
   <si>
@@ -1185,6 +1341,27 @@
     <t>T1134:Access Token Manipulation</t>
   </si>
   <si>
+    <t>T1506:Input Capture</t>
+  </si>
+  <si>
+    <t>T1016:System Network Configuration Discovery</t>
+  </si>
+  <si>
+    <t>T1072:Software Deployment Tools</t>
+  </si>
+  <si>
+    <t>T1074:Data Staged</t>
+  </si>
+  <si>
+    <t>T1573:Encrypted Channel</t>
+  </si>
+  <si>
+    <t>T1029:Scheduled Transfer</t>
+  </si>
+  <si>
+    <t>T1495:Firmware Corruption</t>
+  </si>
+  <si>
     <t>T1195:Supply Chain Compromise</t>
   </si>
   <si>
@@ -1194,46 +1371,241 @@
     <t>T1197:BITS Jobs</t>
   </si>
   <si>
+    <t>T1556:Modify Authentication Process</t>
+  </si>
+  <si>
+    <t>T1049:System Network Connections Discovery</t>
+  </si>
+  <si>
+    <t>T1080:Taint Shared Content</t>
+  </si>
+  <si>
+    <t>T1114:Email Collection</t>
+  </si>
+  <si>
+    <t>T1102:Web Service</t>
+  </si>
+  <si>
+    <t>T1498:Network Denial of Service</t>
+  </si>
+  <si>
     <t>T1199:Trusted Relationship</t>
   </si>
   <si>
-    <t>T1072:Software Deployment Tools</t>
-  </si>
-  <si>
     <t>T1037:Boot or Logon Initialization Scripts</t>
   </si>
   <si>
     <t>T1068:Exploitation for Privilege Escalation</t>
   </si>
   <si>
+    <t>T1564:Hide Artifacts</t>
+  </si>
+  <si>
+    <t>T1111:Muti-Factor Authentication Interception</t>
+  </si>
+  <si>
+    <t>T1033:System Owner/User Discovery</t>
+  </si>
+  <si>
+    <t>T1123:Audio Capture</t>
+  </si>
+  <si>
+    <t>T1092:Communication Through Removable Media</t>
+  </si>
+  <si>
+    <t>T1496:Resource Hijacking</t>
+  </si>
+  <si>
     <t>T1176:Browser Extensions</t>
   </si>
   <si>
+    <t>T1562:Impair Defenses</t>
+  </si>
+  <si>
+    <t>T1621:Muti-Factor Authentication Request Generation</t>
+  </si>
+  <si>
+    <t>T1010:Application Window Discovery</t>
+  </si>
+  <si>
+    <t>T1119:Automated Collection</t>
+  </si>
+  <si>
+    <t>T1489:Service Stop</t>
+  </si>
+  <si>
     <t>T1554:Compromise Host Software Binary</t>
   </si>
   <si>
     <t>T1484:Domain or Tenant Policy Modification</t>
   </si>
   <si>
+    <t>T1070:Indicator Removal</t>
+  </si>
+  <si>
+    <t>T1040:Network Sniffing</t>
+  </si>
+  <si>
+    <t>T1217:Browser Information Discovery</t>
+  </si>
+  <si>
+    <t>T1005:Data from Local System</t>
+  </si>
+  <si>
+    <t>T1008:Fallback Channels</t>
+  </si>
+  <si>
+    <t>T1529:System Shutdown/Reboot</t>
+  </si>
+  <si>
     <t>T1098:Account Manipulation</t>
   </si>
   <si>
-    <t>T1556:Modify Authentication Process</t>
+    <t>T1112:Modify Registry</t>
+  </si>
+  <si>
+    <t>T1649:Steal or Forge Authentication Certificates</t>
+  </si>
+  <si>
+    <t>T1622:Debugger Evasion</t>
+  </si>
+  <si>
+    <t>T1039:Data from Network Shared</t>
+  </si>
+  <si>
+    <t>T1665:Hide Infrastructure</t>
+  </si>
+  <si>
+    <t>T1657:Financial Theft</t>
   </si>
   <si>
     <t>T1611:Escape to Host</t>
   </si>
   <si>
+    <t>T1553:Subvert Trust Controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1558:Steal or Forge Kerberos Tickets </t>
+  </si>
+  <si>
+    <t>T1482:Domain Trust Discovery</t>
+  </si>
+  <si>
+    <t>T1025:Data from Removable Media</t>
+  </si>
+  <si>
+    <t>T1105:Ingress Tool Transfer</t>
+  </si>
+  <si>
+    <t>T1490:Inhibit System Recovery</t>
+  </si>
+  <si>
     <t>T1137:Office Application Startup</t>
   </si>
   <si>
-    <t>T1205:Traffic Signaling</t>
+    <t>T1550:Use Alternate Authentication Material</t>
+  </si>
+  <si>
+    <t>T1539:Steal Web Session Cookie</t>
+  </si>
+  <si>
+    <t>T1615:Group Policy Discovery</t>
+  </si>
+  <si>
+    <t>T1125:Video Capture</t>
+  </si>
+  <si>
+    <t>T1104:Multi-Stage Channels</t>
+  </si>
+  <si>
+    <t>T1212:Exploitation for Credential Access</t>
+  </si>
+  <si>
+    <t>T1654:Log Enumeration</t>
+  </si>
+  <si>
+    <t>T1095:Non-Application Layer Protocol</t>
+  </si>
+  <si>
+    <t>T1046:Network Service Discovery</t>
+  </si>
+  <si>
+    <t>T1571:Non-Standard Port</t>
   </si>
   <si>
     <t>T1542:Pre-OS Boot</t>
   </si>
   <si>
+    <t>T1006:Direct Volume Access</t>
+  </si>
+  <si>
+    <t>T1135:Network Share Discovery</t>
+  </si>
+  <si>
+    <t>T1572:Protocol Tunneling</t>
+  </si>
+  <si>
     <t>T1653:Power Settings</t>
+  </si>
+  <si>
+    <t>T1480:Execution Guardrails</t>
+  </si>
+  <si>
+    <t>T1201:Password Policy Discovery</t>
+  </si>
+  <si>
+    <t>T1211:Exploitation for Defense Evasion</t>
+  </si>
+  <si>
+    <t>T1120:Peripheral Device Discovery</t>
+  </si>
+  <si>
+    <t>T1222:File and Directory Permissions Modification</t>
+  </si>
+  <si>
+    <t>T1012:Query Registry</t>
+  </si>
+  <si>
+    <t>T1656:Impersonation</t>
+  </si>
+  <si>
+    <t>T1614:System Location Discovery</t>
+  </si>
+  <si>
+    <t>T1202:Indirect Command Execution</t>
+  </si>
+  <si>
+    <t>T1007:System Service Discovery</t>
+  </si>
+  <si>
+    <t>T1124:System Time Discovery</t>
+  </si>
+  <si>
+    <t>T1620:Reflective Code Loading</t>
+  </si>
+  <si>
+    <t>T1497:Virtualization/Sandbox Evasion</t>
+  </si>
+  <si>
+    <t>T1014:Rootkit</t>
+  </si>
+  <si>
+    <t>T1652:Device Driver Discovery</t>
+  </si>
+  <si>
+    <t>T1216:System Script Proxy Execution</t>
+  </si>
+  <si>
+    <t>T1221:Template Injection</t>
+  </si>
+  <si>
+    <t>T1127:Trusted Developer Utilities Proxy Execution</t>
+  </si>
+  <si>
+    <t>T1220:XSL Script Processing</t>
+  </si>
+  <si>
+    <t>T1207:Rogue Domain Controller</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1436,6 +1808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,7 +2164,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1810,16 +2188,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1828,163 +2206,196 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2313,25 +2724,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3875,10 +4286,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L26"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3886,266 +4297,731 @@
     <col min="1" max="1" width="33.75" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="5" width="30.375" customWidth="1"/>
-    <col min="6" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="9" width="26" customWidth="1"/>
-    <col min="10" max="11" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="29.25" customWidth="1"/>
+    <col min="8" max="8" width="34.25" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="30.125" customWidth="1"/>
     <col min="12" max="12" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="8" ht="24" spans="1:4">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="24" spans="1:12">
+      <c r="A8" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="9" ht="24" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="H8" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="I8" s="20" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="10" ht="24" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="J8" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="K8" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="L8" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
+    </row>
+    <row r="9" ht="24" spans="1:12">
+      <c r="A9" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="E9" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="F9" s="12" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="13" ht="24" spans="1:4">
-      <c r="A13" s="12" t="s">
+      <c r="G9" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="H9" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="I9" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="J9" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" ht="24" spans="1:12">
+      <c r="A10" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="14" ht="24" spans="1:4">
-      <c r="A14" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F10" s="16" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="16" ht="24" spans="1:4">
-      <c r="A16" s="12" t="s">
+      <c r="G10" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="I10" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" ht="24" spans="1:4">
-      <c r="A17" s="12" t="s">
+      <c r="J10" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="K10" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="L10" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="D17" s="7" t="s">
+    </row>
+    <row r="11" ht="24" spans="1:12">
+      <c r="A11" s="19" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="18" ht="24" spans="3:4">
-      <c r="C18" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" ht="24" spans="3:4">
-      <c r="C19" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="11" t="s">
+      <c r="F11" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:12">
+      <c r="A12" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" ht="24" spans="3:4">
-      <c r="C21" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" ht="24" spans="1:12">
+      <c r="A13" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" ht="24" spans="1:12">
+      <c r="A14" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" ht="24" spans="1:12">
+      <c r="A15" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" ht="24" spans="1:12">
+      <c r="A16" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="1:12">
+      <c r="A17" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="3:12">
+      <c r="C18" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="3:12">
+      <c r="C19" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" ht="24" spans="3:12">
+      <c r="C20" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" ht="24" spans="3:12">
+      <c r="C21" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" ht="24" spans="3:10">
+      <c r="C23" s="21" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="19" t="s">
-        <v>391</v>
+      <c r="E23" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="5:7">
+      <c r="E28" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" ht="24" spans="5:7">
+      <c r="E29" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" ht="24" spans="5:7">
+      <c r="E33" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" ht="24" spans="5:5">
+      <c r="E38" s="28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="31" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4173,17 +5049,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="35" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4263,7 +5139,7 @@
       <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="34" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4307,7 +5183,7 @@
       <c r="C12" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4400,28 +5276,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4571,7 +5447,7 @@
       <c r="F13" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="34" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4747,7 +5623,7 @@
       <c r="F29" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="34" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4816,7 +5692,7 @@
       <c r="F35" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="34" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4860,7 +5736,7 @@
       <c r="F39" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="34" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4871,7 +5747,7 @@
       <c r="F40" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="34" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4882,7 +5758,7 @@
       <c r="F41" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="34" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4893,7 +5769,7 @@
       <c r="F42" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="34" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5820,38 +6696,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -5945,38 +6821,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6064,38 +6940,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6165,38 +7041,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">

--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10485" firstSheet="9" activeTab="16"/>
+    <workbookView windowWidth="24030" windowHeight="10485" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DetectionModel" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="591">
   <si>
     <t>Entity</t>
   </si>
@@ -1033,6 +1033,251 @@
   </si>
   <si>
     <t>同ProcessCreate</t>
+  </si>
+  <si>
+    <t>File Metadata</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>文件节点ID</t>
+  </si>
+  <si>
+    <t>文件节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>文件节点的treeid</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>文件路径，包含文件名</t>
+  </si>
+  <si>
+    <t>OriginalFileName</t>
+  </si>
+  <si>
+    <t>原始文件名（只针对PE有效）</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>文件分类
+1:启动项</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>文件后缀
+1:zip
+2:pe</t>
+  </si>
+  <si>
+    <t>RealType</t>
+  </si>
+  <si>
+    <t>真实文件类型：通过文件内容解析识别的文件类型
+1:zip</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>文件产品名</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>文件描述</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>文件版本</t>
+  </si>
+  <si>
+    <t>CreatedTime</t>
+  </si>
+  <si>
+    <t>ModifiedTime</t>
+  </si>
+  <si>
+    <t>AccessedTime</t>
+  </si>
+  <si>
+    <t>HashMd5</t>
+  </si>
+  <si>
+    <t>HashSha1</t>
+  </si>
+  <si>
+    <t>HashSha256</t>
+  </si>
+  <si>
+    <t>HashSubHash</t>
+  </si>
+  <si>
+    <t>SignatureType</t>
+  </si>
+  <si>
+    <t>签名类型与有效性标识
+0:无签名
+1:有签名（不一定有效仅判断是否存在签名）
+2:编录签名（有效）
+3:嵌入签名（有效）</t>
+  </si>
+  <si>
+    <t>SignatureName</t>
+  </si>
+  <si>
+    <t>SignatureTime</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>文件属性标识</t>
+  </si>
+  <si>
+    <t>SystemType</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>文件系统类型
+0:ntfs
+1:fat32
+2:vmfs
+3:ext3
+4:ext4
+5:xfs</t>
+  </si>
+  <si>
+    <t>MotwZoneIdentifier</t>
+  </si>
+  <si>
+    <t>标识文件或数据的来源区域
+1:Internet Zone:来自互联网的文件
+2:Local Intranet Zone:来自本地网络的文件
+3:Trusted Sites Zone:来自受信任网络的文件
+4:Restricted Sites Zone:来自受限网络的文件</t>
+  </si>
+  <si>
+    <t>MotwHostUrl</t>
+  </si>
+  <si>
+    <t>访问某个网站或服务的地址
+https://www.example.com/path/to/resource</t>
+  </si>
+  <si>
+    <t>MotwReferrerUrl</t>
+  </si>
+  <si>
+    <t>指用户在访问当前页面之前所访问的页面的URL</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>文件内容，如果是脚本，这里就是脚本内容</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>文件来源(0:未知、1:浏览器、2:Web邮箱、3:邮箱客户端、4:IM工具)</t>
+  </si>
+  <si>
+    <t>SourceRootFile</t>
+  </si>
+  <si>
+    <t>根文件来源
+对应根文件，文件路径</t>
+  </si>
+  <si>
+    <t>CamouflageType</t>
+  </si>
+  <si>
+    <t>伪装类型，文件伪装，cmdline，ppid</t>
+  </si>
+  <si>
+    <t>IconSpoofType</t>
+  </si>
+  <si>
+    <t>LnkTarget</t>
+  </si>
+  <si>
+    <t>Lnk图标</t>
+  </si>
+  <si>
+    <t>NameSameAsSystem</t>
+  </si>
+  <si>
+    <t>exe文件在系统目录下是否存在同名文件（0：没有同名文件 1：有同名文件）</t>
+  </si>
+  <si>
+    <t>TransmitDll</t>
+  </si>
+  <si>
+    <t>dll是否存在代理转发（0：不存在导出转发、1：部分函数存在代理转发、2：所有函数存在动态转发）</t>
+  </si>
+  <si>
+    <t>TransmitDllname</t>
+  </si>
+  <si>
+    <t>[新增]代理转发动态库路径</t>
+  </si>
+  <si>
+    <t>0x020008</t>
+  </si>
+  <si>
+    <t>0x021007</t>
+  </si>
+  <si>
+    <t>0x020009</t>
+  </si>
+  <si>
+    <t>0x02000a</t>
+  </si>
+  <si>
+    <t>PreviousName</t>
+  </si>
+  <si>
+    <t>PreviousPath</t>
+  </si>
+  <si>
+    <t>0x02000b</t>
+  </si>
+  <si>
+    <t>IsFirstCreate</t>
+  </si>
+  <si>
+    <t>0x0200c</t>
+  </si>
+  <si>
+    <t>PreviousCreatedTime</t>
+  </si>
+  <si>
+    <t>0x02000d</t>
+  </si>
+  <si>
+    <t>File Deletion</t>
+  </si>
+  <si>
+    <t>0x02000e</t>
   </si>
   <si>
     <t>Extend File Metadata</t>
@@ -1786,7 +2031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1808,12 +2053,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,7 +2403,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2188,16 +2427,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2206,89 +2445,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,12 +2549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2325,22 +2558,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2358,9 +2579,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2368,18 +2586,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2390,6 +2596,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2724,25 +2933,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4288,8 +4497,8 @@
   <sheetPr/>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4313,715 +4522,715 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>336</v>
+        <v>411</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>414</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:12">
-      <c r="A8" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>358</v>
+      <c r="A8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:12">
-      <c r="A9" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>370</v>
+      <c r="A9" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:12">
-      <c r="A10" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>380</v>
+      <c r="A10" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:12">
-      <c r="A11" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>391</v>
+      <c r="A11" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:12">
-      <c r="A12" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>401</v>
+      <c r="A12" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
-      <c r="A13" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>411</v>
+      <c r="A13" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:12">
-      <c r="A14" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>422</v>
+      <c r="A14" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:12">
-      <c r="A15" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>433</v>
+      <c r="A15" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:12">
-      <c r="A16" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>442</v>
+      <c r="A16" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:12">
-      <c r="A17" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>451</v>
+      <c r="A17" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="18" ht="24" spans="3:12">
-      <c r="C18" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="I18" s="26" t="s">
+      <c r="C18" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="3:12">
+      <c r="C19" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" ht="24" spans="3:12">
+      <c r="C20" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="J18" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" ht="24" spans="3:12">
-      <c r="C19" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="J19" s="31" t="s">
+      <c r="D20" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="21" ht="24" spans="3:12">
+      <c r="C21" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" ht="24" spans="3:10">
+      <c r="C23" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="L19" s="31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" ht="24" spans="3:12">
-      <c r="C20" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" ht="24" spans="3:12">
-      <c r="C21" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" ht="24" spans="3:10">
-      <c r="C23" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>488</v>
+      <c r="E23" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>490</v>
+      <c r="C24" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>494</v>
+      <c r="C25" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>461</v>
+      <c r="C26" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>497</v>
+      <c r="E27" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="28" ht="24" spans="5:7">
-      <c r="E28" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>499</v>
+      <c r="E28" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="29" ht="24" spans="5:7">
-      <c r="E29" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>501</v>
+      <c r="E29" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="5:7">
-      <c r="E30" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>503</v>
+      <c r="E30" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>505</v>
+      <c r="E31" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="5:7">
-      <c r="E32" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>506</v>
+      <c r="E32" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="33" ht="24" spans="5:7">
-      <c r="E33" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>508</v>
+      <c r="E33" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>510</v>
+      <c r="E34" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="28" t="s">
-        <v>511</v>
+      <c r="E35" s="15" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="28" t="s">
-        <v>512</v>
+      <c r="E36" s="15" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="28" t="s">
-        <v>389</v>
+      <c r="E37" s="15" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="38" ht="24" spans="5:5">
-      <c r="E38" s="28" t="s">
-        <v>513</v>
+      <c r="E38" s="15" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="28" t="s">
-        <v>514</v>
+      <c r="E39" s="15" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="31" t="s">
-        <v>491</v>
+      <c r="E40" s="20" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="31" t="s">
-        <v>508</v>
+      <c r="E41" s="20" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="31" t="s">
-        <v>515</v>
+      <c r="E42" s="20" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5049,17 +5258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="25" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5139,7 +5348,7 @@
       <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="24" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5183,7 +5392,7 @@
       <c r="C12" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="24" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5259,8 +5468,8 @@
   <sheetPr/>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5276,28 +5485,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5447,7 +5656,7 @@
       <c r="F13" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="24" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5623,7 +5832,7 @@
       <c r="F29" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="24" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5692,7 +5901,7 @@
       <c r="F35" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="24" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5736,7 +5945,7 @@
       <c r="F39" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="24" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5747,7 +5956,7 @@
       <c r="F40" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="24" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5758,7 +5967,7 @@
       <c r="F41" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="24" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5769,7 +5978,7 @@
       <c r="F42" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="24" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6696,38 +6905,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -6787,14 +6996,786 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="43.375" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="5:7">
+      <c r="E8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="5:7">
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="5:7">
+      <c r="E10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" ht="81" spans="5:7">
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" ht="94.5" spans="5:7">
+      <c r="E26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" ht="67.5" spans="5:7">
+      <c r="E27" t="s">
+        <v>364</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="5:7">
+      <c r="E28" t="s">
+        <v>366</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
+        <v>370</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="4:7">
+      <c r="D31" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="5:7">
+      <c r="E33" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" ht="67.5" spans="5:7">
+      <c r="E35" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
+        <v>379</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="5:7">
+      <c r="E37" t="s">
+        <v>381</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="5:7">
+      <c r="E38" t="s">
+        <v>383</v>
+      </c>
+      <c r="F38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" t="s">
+        <v>385</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" t="s">
+        <v>279</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>390</v>
+      </c>
+      <c r="D49" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>395</v>
+      </c>
+      <c r="D58" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>397</v>
+      </c>
+      <c r="D62" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" t="s">
+        <v>277</v>
+      </c>
+      <c r="E63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>399</v>
+      </c>
+      <c r="D65" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A2:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C2:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D2:D30"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D59:D60"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6821,38 +7802,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6862,7 +7843,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
         <v>276</v>
@@ -6879,7 +7860,7 @@
         <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="5:6">
@@ -6887,7 +7868,7 @@
         <v>297</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="5:6">
@@ -6895,7 +7876,7 @@
         <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="4:5">
@@ -6940,38 +7921,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6981,7 +7962,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
         <v>276</v>
@@ -6998,7 +7979,7 @@
         <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="4:5">
@@ -7041,38 +8022,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -7082,7 +8063,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D3" t="s">
         <v>276</v>
@@ -7099,7 +8080,7 @@
         <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="4:5">
@@ -7127,7 +8108,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="592">
   <si>
     <t>Entity</t>
   </si>
@@ -1299,6 +1299,9 @@
   </si>
   <si>
     <t>0x020010</t>
+  </si>
+  <si>
+    <t>Data Components</t>
   </si>
   <si>
     <t>High</t>
@@ -4522,715 +4525,715 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:12">
       <c r="A17" s="16" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" ht="24" spans="3:12">
       <c r="C18" s="15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" ht="24" spans="3:12">
       <c r="C19" s="15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" ht="24" spans="3:12">
       <c r="C20" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" ht="24" spans="3:12">
       <c r="C21" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" s="15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" ht="24" spans="3:10">
       <c r="C23" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="20" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="20" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="15" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" ht="24" spans="5:7">
       <c r="E28" s="15" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" ht="24" spans="5:7">
       <c r="E29" s="15" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" s="15" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" ht="24" spans="5:7">
       <c r="E33" s="15" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="15" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="15" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" ht="24" spans="5:5">
       <c r="E38" s="15" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="15" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -8109,11 +8112,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="622">
   <si>
     <t>Entity</t>
   </si>
@@ -1302,6 +1302,122 @@
   </si>
   <si>
     <t>Data Components</t>
+  </si>
+  <si>
+    <t>Registry Metadata</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>注册表节点ID</t>
+  </si>
+  <si>
+    <t>注册表节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>注册表节点的treeid</t>
+  </si>
+  <si>
+    <t>KeyPath</t>
+  </si>
+  <si>
+    <t>注册表项名称（完整路径）</t>
+  </si>
+  <si>
+    <t>KeyName</t>
+  </si>
+  <si>
+    <t>注册表项名称</t>
+  </si>
+  <si>
+    <t>ValueType</t>
+  </si>
+  <si>
+    <t>值类型，REG_SZ(0),REG_EXPAND_SZ(1),REG_BINARY(2),REG_DWORD(3),REG_QWORD(4),REG_MULTI_SZ(5),REG_NONE(6)</t>
+  </si>
+  <si>
+    <t>ValueName</t>
+  </si>
+  <si>
+    <t>注册表值名称</t>
+  </si>
+  <si>
+    <t>ValueData</t>
+  </si>
+  <si>
+    <t>注册表值内容(不管是哪种类型的，统一搞成string)</t>
+  </si>
+  <si>
+    <t>KeyAccessRights</t>
+  </si>
+  <si>
+    <t>注册表key存取权限</t>
+  </si>
+  <si>
+    <t>outFile</t>
+  </si>
+  <si>
+    <t>保存的文件</t>
+  </si>
+  <si>
+    <t>Values:
+UNKNOWN(0)
+SYSTEM_STARTUP_AUTORUN(1)
+SYSTEM_SHUTDOWN_AUTORUN(2)
+USER_LOGON_AUTORUN(3)
+USER_LOGOFF_AUTORUN(4)
+APP_START_AUTORUN(5)
+APP_EXTENSION(6)
+SERVICE(7)
+AUTHENTICATION(8)
+CORE_PROCESSES(9)
+CUSTOM_PROCESSES(10)
+CORE_SERVICES(11)
+CORE_SERVICES_PLUGINS(12)
+SERVER_PLUGINS(13)
+NETWORK_SERVICE_PLUGINS(14)
+LANG_SERVICE_PLUGINS(15)
+MULTIMEDIA_PLUGINS(16)
+SHELL_PLUGINS(17)
+IE_COM_PLUGINS(18)
+COM_REGISTRATION(19)
+PRINTERS(20)
+TERMINAL_SERVER(21)
+GRAPHICS_CORE(22)
+SYSTEM_CONFIG(23)
+ASEP_CLASS_MARGIN(100)
+CROWDSTRIKE_DATA(101)</t>
+  </si>
+  <si>
+    <t>0x030011</t>
+  </si>
+  <si>
+    <t>0x030803</t>
+  </si>
+  <si>
+    <t>0x030804</t>
+  </si>
+  <si>
+    <t>0x030012</t>
+  </si>
+  <si>
+    <t>0x030805</t>
+  </si>
+  <si>
+    <t>0x030806</t>
+  </si>
+  <si>
+    <t>0x030013</t>
+  </si>
+  <si>
+    <t>0x030807</t>
+  </si>
+  <si>
+    <t>0x030808</t>
+  </si>
+  <si>
+    <t>WindowsRegistry Key Modification</t>
   </si>
   <si>
     <t>High</t>
@@ -2594,14 +2710,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2936,25 +3052,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4525,715 +4641,715 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:12">
       <c r="A17" s="16" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" ht="24" spans="3:12">
       <c r="C18" s="15" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" ht="24" spans="3:12">
       <c r="C19" s="15" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" ht="24" spans="3:12">
       <c r="C20" s="15" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" ht="24" spans="3:12">
       <c r="C21" s="15" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" s="15" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" ht="24" spans="3:10">
       <c r="C23" s="15" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="20" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="20" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="20" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="15" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" ht="24" spans="5:7">
       <c r="E28" s="15" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" ht="24" spans="5:7">
       <c r="E29" s="15" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" s="15" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="15" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" ht="24" spans="5:7">
       <c r="E33" s="15" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="15" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="15" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="15" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" s="15" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" ht="24" spans="5:5">
       <c r="E38" s="15" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="15" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" s="20" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="20" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="20" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -5488,28 +5604,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6908,38 +7024,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -7018,28 +7134,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7128,7 +7244,7 @@
       <c r="F8" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7139,7 +7255,7 @@
       <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7150,7 +7266,7 @@
       <c r="F10" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7282,7 +7398,7 @@
       <c r="F22" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7326,7 +7442,7 @@
       <c r="F26" t="s">
         <v>362</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7337,7 +7453,7 @@
       <c r="F27" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="21" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7348,7 +7464,7 @@
       <c r="F28" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="21" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7384,7 +7500,7 @@
       <c r="F31" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="21" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7406,7 +7522,7 @@
       <c r="F33" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="21" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7450,7 +7566,7 @@
       <c r="F37" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="21" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7461,7 +7577,7 @@
       <c r="F38" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="21" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7805,38 +7921,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -7924,38 +8040,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -8025,38 +8141,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -8109,20 +8225,463 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>407</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="5:7">
+      <c r="E7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="5:7">
+      <c r="E9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="4:7">
+      <c r="D12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>434</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>435</v>
+      </c>
+      <c r="D34" t="s">
+        <v>276</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" t="s">
+        <v>279</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/windows/AttackDataModel.xlsx
+++ b/windows/AttackDataModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10485" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="24030" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="DetectionModel" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="777">
   <si>
     <t>Entity</t>
   </si>
@@ -1417,7 +1417,480 @@
     <t>0x030808</t>
   </si>
   <si>
-    <t>WindowsRegistry Key Modification</t>
+    <t>0x030014</t>
+  </si>
+  <si>
+    <t>PreviousKeyName</t>
+  </si>
+  <si>
+    <t>0x030809</t>
+  </si>
+  <si>
+    <t>0x03080a</t>
+  </si>
+  <si>
+    <t>0x030015</t>
+  </si>
+  <si>
+    <t>0x03080b</t>
+  </si>
+  <si>
+    <t>0x03080c</t>
+  </si>
+  <si>
+    <t>0x030016</t>
+  </si>
+  <si>
+    <t>PreviousKeyAccessRights</t>
+  </si>
+  <si>
+    <t>0x03080d</t>
+  </si>
+  <si>
+    <t>0x03080e</t>
+  </si>
+  <si>
+    <t>0x030017</t>
+  </si>
+  <si>
+    <t>0x03080f</t>
+  </si>
+  <si>
+    <t>RemoteRpcRegistryDeltekey</t>
+  </si>
+  <si>
+    <t>0x030810</t>
+  </si>
+  <si>
+    <t>0x030018</t>
+  </si>
+  <si>
+    <t>0x030812</t>
+  </si>
+  <si>
+    <t>0x030813</t>
+  </si>
+  <si>
+    <t>Scheduled Job Metadata</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>任务计划节点ID</t>
+  </si>
+  <si>
+    <t>任务计划节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>任务计划节点的treeid</t>
+  </si>
+  <si>
+    <t>计划任务ID</t>
+  </si>
+  <si>
+    <t>ProcessPath</t>
+  </si>
+  <si>
+    <t>任务计划运行程序的路径</t>
+  </si>
+  <si>
+    <t>任务计划运行时使用的登录账户</t>
+  </si>
+  <si>
+    <t>该任务计划的名字</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>该任务计划的频率(单位分钟/次)</t>
+  </si>
+  <si>
+    <t>0x040019</t>
+  </si>
+  <si>
+    <t>0x040814</t>
+  </si>
+  <si>
+    <t>RemoteRpcScheduleTaskCreate</t>
+  </si>
+  <si>
+    <t>0x040815</t>
+  </si>
+  <si>
+    <t>0x04001a</t>
+  </si>
+  <si>
+    <t>0x040816</t>
+  </si>
+  <si>
+    <t>RemoteRpcScheduleTaskModification</t>
+  </si>
+  <si>
+    <t>0x040817</t>
+  </si>
+  <si>
+    <t>Service Metadata</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>服务节点ID</t>
+  </si>
+  <si>
+    <t>服务节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>服务节点的treeid</t>
+  </si>
+  <si>
+    <t>服务注册的程序cmd</t>
+  </si>
+  <si>
+    <t>该服务的名字</t>
+  </si>
+  <si>
+    <t>StartType</t>
+  </si>
+  <si>
+    <t>服务启动类型 Automatic(0),Delayed(1),Manual(2),Disabled(3),Boot(4),System(5)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>状态 Running(0),Stopped(1),Paused(2),Starting(3),Stopping(4)</t>
+  </si>
+  <si>
+    <t>FailureCommandLine</t>
+  </si>
+  <si>
+    <t>服务失败执行的命令</t>
+  </si>
+  <si>
+    <t>SvchostDLL</t>
+  </si>
+  <si>
+    <t>svchost代理的dll路径，考虑svchost作为容器的dll服务</t>
+  </si>
+  <si>
+    <t>0x05001b</t>
+  </si>
+  <si>
+    <t>0x050816</t>
+  </si>
+  <si>
+    <t>0x050817</t>
+  </si>
+  <si>
+    <t>0x05001c</t>
+  </si>
+  <si>
+    <t>0x050818</t>
+  </si>
+  <si>
+    <t>0x050819</t>
+  </si>
+  <si>
+    <t>Network Traffic Metadata</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>网络节点ID</t>
+  </si>
+  <si>
+    <t>网络节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>网络节点的treeid</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>协议，tcp/udp</t>
+  </si>
+  <si>
+    <t>IpType</t>
+  </si>
+  <si>
+    <t>ipv4:1
+ipv6:2</t>
+  </si>
+  <si>
+    <t>SrcIp</t>
+  </si>
+  <si>
+    <t>源IP</t>
+  </si>
+  <si>
+    <t>SrcPort</t>
+  </si>
+  <si>
+    <t>源端口</t>
+  </si>
+  <si>
+    <t>DstIp</t>
+  </si>
+  <si>
+    <t>目的IP</t>
+  </si>
+  <si>
+    <t>DstPort</t>
+  </si>
+  <si>
+    <t>目的端口</t>
+  </si>
+  <si>
+    <t>ClientComputerName</t>
+  </si>
+  <si>
+    <t>远程计算机，对应remoteRpc的计算机名</t>
+  </si>
+  <si>
+    <t>查询状态</t>
+  </si>
+  <si>
+    <t>DnsQueryName</t>
+  </si>
+  <si>
+    <t>DNS事件访问域名</t>
+  </si>
+  <si>
+    <t>DnsQueryResults</t>
+  </si>
+  <si>
+    <t>查询结果</t>
+  </si>
+  <si>
+    <t>0x06001d</t>
+  </si>
+  <si>
+    <t>0x06001e</t>
+  </si>
+  <si>
+    <t>0x061008</t>
+  </si>
+  <si>
+    <t>0x061009</t>
+  </si>
+  <si>
+    <t>0x06001f</t>
+  </si>
+  <si>
+    <t>User Account Metadata</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>账户节点ID</t>
+  </si>
+  <si>
+    <t>账户节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>账户节点的treeid</t>
+  </si>
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>用户的安全标识符</t>
+  </si>
+  <si>
+    <t>DomainName</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>Longonld</t>
+  </si>
+  <si>
+    <t>用户的登录ID</t>
+  </si>
+  <si>
+    <t>LongonType</t>
+  </si>
+  <si>
+    <t>用户的登录类型
+参见微软文档</t>
+  </si>
+  <si>
+    <t>SessionId</t>
+  </si>
+  <si>
+    <t>用户登录的SessionID</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>发起登陆机器的IP地址，仅对远程登陆有效</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>发起登陆机器的端口，仅对远程登陆有效</t>
+  </si>
+  <si>
+    <t>登录成功or登录失败
+1:成功
+0:失败</t>
+  </si>
+  <si>
+    <t>0x073001</t>
+  </si>
+  <si>
+    <t>0x07100a</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>LoginCount</t>
+  </si>
+  <si>
+    <t>0x073002</t>
+  </si>
+  <si>
+    <t>User Account Delete</t>
+  </si>
+  <si>
+    <t>0x073003</t>
+  </si>
+  <si>
+    <t>0x073004</t>
+  </si>
+  <si>
+    <t>0x073005</t>
+  </si>
+  <si>
+    <t>Sensor Health Metadata</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>ServiceComponent</t>
+  </si>
+  <si>
+    <t>服务组件</t>
+  </si>
+  <si>
+    <t>ServiceState</t>
+  </si>
+  <si>
+    <t>服务状态：
+0:invalid
+1:running
+2:stopped
+3:error</t>
+  </si>
+  <si>
+    <t>0x08f001</t>
+  </si>
+  <si>
+    <t>Named Pipe Metadata</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>uinit64</t>
+  </si>
+  <si>
+    <t>管道节点ID</t>
+  </si>
+  <si>
+    <t>管道节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>管道节点的treeid</t>
+  </si>
+  <si>
+    <t>管道名称</t>
+  </si>
+  <si>
+    <t>管道路径</t>
+  </si>
+  <si>
+    <t>0x090020</t>
+  </si>
+  <si>
+    <t>0x090021</t>
+  </si>
+  <si>
+    <t>WMI Metadata</t>
+  </si>
+  <si>
+    <t>0x0a</t>
+  </si>
+  <si>
+    <t>wmi节点ID</t>
+  </si>
+  <si>
+    <t>wmi节点在物理树上的ID</t>
+  </si>
+  <si>
+    <t>wmi节点的treeid</t>
+  </si>
+  <si>
+    <t>FilterName</t>
+  </si>
+  <si>
+    <t>wmi filter名称</t>
+  </si>
+  <si>
+    <t>ConsumerName</t>
+  </si>
+  <si>
+    <t>wmi consumer名称</t>
+  </si>
+  <si>
+    <t>ConsumerType</t>
+  </si>
+  <si>
+    <t>wmi consumer类型 Command-line(0),Script(1),LogFile(2),SMTP(3),NTEvent(4)</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>wmi query wql查询语句</t>
+  </si>
+  <si>
+    <t>FilterEventNamespace</t>
+  </si>
+  <si>
+    <t>Filter的命名空间</t>
+  </si>
+  <si>
+    <t>ConsumerDestination</t>
+  </si>
+  <si>
+    <t>wmi consumer对应的目标</t>
+  </si>
+  <si>
+    <t>0x0a3006</t>
+  </si>
+  <si>
+    <t>0x0a3007</t>
+  </si>
+  <si>
+    <t>0x0a3008</t>
   </si>
   <si>
     <t>High</t>
@@ -2710,6 +3183,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2718,12 +3197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3038,7 +3511,7 @@
   <sheetPr/>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -3052,25 +3525,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4502,14 +4975,357 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>471</v>
+      </c>
+      <c r="D19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D2:D9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4518,14 +5334,368 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A20" sqref="A20:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="48.75" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="5:7">
+      <c r="E7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="5:7">
+      <c r="E8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>489</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>496</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D2:D10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4534,14 +5704,388 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="5:7">
+      <c r="E6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>508</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>484</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>521</v>
+      </c>
+      <c r="D15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>522</v>
+      </c>
+      <c r="D18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>525</v>
+      </c>
+      <c r="D27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C2:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D2:D14"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4550,14 +6094,425 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="40.125" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="5:7">
+      <c r="E9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>539</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>543</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="5:7">
+      <c r="E13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>546</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>547</v>
+      </c>
+      <c r="D17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>552</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>555</v>
+      </c>
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="D18:D21"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4566,14 +6521,159 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="5:7">
+      <c r="E6" t="s">
+        <v>560</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D2:D6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4582,14 +6682,189 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4598,14 +6873,268 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="80.125" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>592</v>
+      </c>
+      <c r="D17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D2:D10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4641,715 +7170,715 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>438</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>439</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>440</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>441</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>442</v>
+        <v>597</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>443</v>
+        <v>598</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>446</v>
+        <v>601</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>448</v>
+        <v>603</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>449</v>
+        <v>604</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>450</v>
+        <v>605</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>451</v>
+        <v>606</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>452</v>
+        <v>607</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>453</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>454</v>
+        <v>609</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>455</v>
+        <v>610</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>456</v>
+        <v>611</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>457</v>
+        <v>612</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>457</v>
+        <v>612</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>458</v>
+        <v>613</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>459</v>
+        <v>614</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>460</v>
+        <v>615</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>461</v>
+        <v>616</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>462</v>
+        <v>617</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>463</v>
+        <v>618</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>464</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>466</v>
+        <v>621</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>467</v>
+        <v>622</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>468</v>
+        <v>623</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>469</v>
+        <v>624</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>470</v>
+        <v>625</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>471</v>
+        <v>626</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>472</v>
+        <v>627</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>473</v>
+        <v>628</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>474</v>
+        <v>629</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>475</v>
+        <v>630</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>476</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>477</v>
+        <v>632</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>478</v>
+        <v>633</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>479</v>
+        <v>634</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>467</v>
+        <v>622</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>479</v>
+        <v>634</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>480</v>
+        <v>635</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>481</v>
+        <v>636</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>482</v>
+        <v>637</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>483</v>
+        <v>638</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>484</v>
+        <v>639</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>485</v>
+        <v>640</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>486</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>487</v>
+        <v>642</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>488</v>
+        <v>643</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>479</v>
+        <v>634</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>490</v>
+        <v>645</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>491</v>
+        <v>646</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>492</v>
+        <v>647</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>493</v>
+        <v>648</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>494</v>
+        <v>649</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>495</v>
+        <v>650</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>496</v>
+        <v>651</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>497</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>498</v>
+        <v>653</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>499</v>
+        <v>654</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>501</v>
+        <v>656</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>461</v>
+        <v>616</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>502</v>
+        <v>657</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>503</v>
+        <v>658</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>504</v>
+        <v>659</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>505</v>
+        <v>660</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>506</v>
+        <v>661</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>507</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>508</v>
+        <v>663</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>509</v>
+        <v>664</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>510</v>
+        <v>665</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>511</v>
+        <v>666</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>512</v>
+        <v>667</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>513</v>
+        <v>668</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>514</v>
+        <v>669</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>515</v>
+        <v>670</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>516</v>
+        <v>671</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>517</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>518</v>
+        <v>673</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>519</v>
+        <v>674</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>521</v>
+        <v>676</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>522</v>
+        <v>677</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>523</v>
+        <v>678</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>524</v>
+        <v>679</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>525</v>
+        <v>680</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>526</v>
+        <v>681</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>528</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>529</v>
+        <v>684</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>530</v>
+        <v>685</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>531</v>
+        <v>686</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>532</v>
+        <v>687</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>533</v>
+        <v>688</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>534</v>
+        <v>689</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>535</v>
+        <v>690</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>536</v>
+        <v>691</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>537</v>
+        <v>692</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>538</v>
+        <v>693</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>539</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>540</v>
+        <v>695</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>541</v>
+        <v>696</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>542</v>
+        <v>697</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>532</v>
+        <v>687</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>543</v>
+        <v>698</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>544</v>
+        <v>699</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>545</v>
+        <v>700</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>546</v>
+        <v>701</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>547</v>
+        <v>702</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>548</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:12">
       <c r="A17" s="16" t="s">
-        <v>549</v>
+        <v>704</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>535</v>
+        <v>690</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>551</v>
+        <v>706</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>552</v>
+        <v>707</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>553</v>
+        <v>708</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>554</v>
+        <v>709</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>555</v>
+        <v>710</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>557</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" ht="24" spans="3:12">
       <c r="C18" s="15" t="s">
-        <v>558</v>
+        <v>713</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>559</v>
+        <v>714</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>560</v>
+        <v>715</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>562</v>
+        <v>717</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>508</v>
+        <v>663</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>563</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" ht="24" spans="3:12">
       <c r="C19" s="15" t="s">
-        <v>564</v>
+        <v>719</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>565</v>
+        <v>720</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>566</v>
+        <v>721</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>567</v>
+        <v>722</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>568</v>
+        <v>723</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>569</v>
+        <v>724</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>570</v>
+        <v>725</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>571</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" ht="24" spans="3:12">
       <c r="C20" s="15" t="s">
-        <v>487</v>
+        <v>642</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>572</v>
+        <v>727</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>573</v>
+        <v>728</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>574</v>
+        <v>729</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>576</v>
+        <v>731</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>577</v>
+        <v>732</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>578</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" ht="24" spans="3:12">
       <c r="C21" s="15" t="s">
-        <v>543</v>
+        <v>698</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>579</v>
+        <v>734</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>580</v>
+        <v>735</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>581</v>
+        <v>736</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>582</v>
+        <v>737</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>584</v>
+        <v>739</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>585</v>
+        <v>740</v>
       </c>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" s="15" t="s">
-        <v>586</v>
+        <v>741</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>587</v>
+        <v>742</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>588</v>
+        <v>743</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>589</v>
+        <v>744</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>590</v>
+        <v>745</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>591</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" ht="24" spans="3:10">
       <c r="C23" s="15" t="s">
-        <v>495</v>
+        <v>650</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>542</v>
+        <v>697</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>592</v>
+        <v>747</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>593</v>
+        <v>748</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>594</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="20" t="s">
-        <v>572</v>
+        <v>727</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>595</v>
+        <v>750</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>596</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="20" t="s">
-        <v>597</v>
+        <v>752</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>598</v>
+        <v>753</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>599</v>
+        <v>754</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>600</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="20" t="s">
-        <v>601</v>
+        <v>756</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>565</v>
+        <v>720</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>567</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="15" t="s">
-        <v>602</v>
+        <v>757</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>603</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" ht="24" spans="5:7">
       <c r="E28" s="15" t="s">
-        <v>604</v>
+        <v>759</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>605</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" ht="24" spans="5:7">
       <c r="E29" s="15" t="s">
-        <v>606</v>
+        <v>761</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>607</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" s="15" t="s">
-        <v>608</v>
+        <v>763</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>609</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>610</v>
+        <v>765</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>611</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="15" t="s">
-        <v>543</v>
+        <v>698</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>612</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" ht="24" spans="5:7">
       <c r="E33" s="15" t="s">
-        <v>613</v>
+        <v>768</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>614</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="15" t="s">
-        <v>615</v>
+        <v>770</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>616</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="15" t="s">
-        <v>617</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="15" t="s">
-        <v>618</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" s="15" t="s">
-        <v>495</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" ht="24" spans="5:5">
       <c r="E38" s="15" t="s">
-        <v>619</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="15" t="s">
-        <v>620</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" s="20" t="s">
-        <v>597</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="20" t="s">
-        <v>614</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="20" t="s">
-        <v>621</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -5377,17 +7906,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5467,7 +7996,7 @@
       <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5511,7 +8040,7 @@
       <c r="C12" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5604,28 +8133,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5775,7 +8304,7 @@
       <c r="F13" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5951,7 +8480,7 @@
       <c r="F29" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6020,7 +8549,7 @@
       <c r="F35" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6064,7 +8593,7 @@
       <c r="F39" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6075,7 +8604,7 @@
       <c r="F40" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6086,7 +8615,7 @@
       <c r="F41" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6097,7 +8626,7 @@
       <c r="F42" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7024,38 +9553,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -7134,28 +9663,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7244,7 +9773,7 @@
       <c r="F8" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="23" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7255,18 +9784,18 @@
       <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="5:7">
+    <row r="10" ht="27" spans="5:7">
       <c r="E10" t="s">
         <v>339</v>
       </c>
       <c r="F10" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="23" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7391,14 +9920,14 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" ht="81" spans="5:7">
+    <row r="22" ht="67.5" spans="5:7">
       <c r="E22" t="s">
         <v>355</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="23" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7442,7 +9971,7 @@
       <c r="F26" t="s">
         <v>362</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="23" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7453,7 +9982,7 @@
       <c r="F27" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="23" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7464,7 +9993,7 @@
       <c r="F28" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="23" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7500,7 +10029,7 @@
       <c r="F31" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="23" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7522,7 +10051,7 @@
       <c r="F33" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="23" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7544,7 +10073,7 @@
       <c r="F35" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7566,18 +10095,18 @@
       <c r="F37" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="38" ht="40.5" spans="5:7">
+    <row r="38" ht="27" spans="5:7">
       <c r="E38" t="s">
         <v>383</v>
       </c>
       <c r="F38" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="23" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7921,38 +10450,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -8040,38 +10569,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -8141,38 +10670,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -8225,10 +10754,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8242,28 +10771,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8341,7 +10870,7 @@
       <c r="F7" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8363,7 +10892,7 @@
       <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="23" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8389,7 +10918,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="4:7">
+    <row r="12" ht="364.5" spans="4:7">
       <c r="D12" t="s">
         <v>257</v>
       </c>
@@ -8399,7 +10928,7 @@
       <c r="F12" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="23" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8477,7 +11006,7 @@
         <v>276</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -8679,12 +11208,557 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>437</v>
       </c>
+      <c r="D40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D44" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>441</v>
+      </c>
+      <c r="D50" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>442</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61" t="s">
+        <v>276</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" t="s">
+        <v>277</v>
+      </c>
+      <c r="E62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>446</v>
+      </c>
+      <c r="D65" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" t="s">
+        <v>279</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>449</v>
+      </c>
+      <c r="D76" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" t="s">
+        <v>279</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>450</v>
+      </c>
+      <c r="C79" t="s">
+        <v>451</v>
+      </c>
+      <c r="D79" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E80" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>452</v>
+      </c>
+      <c r="D82" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" t="s">
+        <v>277</v>
+      </c>
+      <c r="E86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A40:A72"/>
+    <mergeCell ref="A73:A90"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D70:D71"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
